--- a/week-9/8-4-A-descriptive-stats/anscombe.xlsx
+++ b/week-9/8-4-A-descriptive-stats/anscombe.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,45 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Setup\Documents\GitHub\data-analytics-lectures\week-9\8-4-A-descriptive-stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5114EE6C-534C-4B28-80FC-3B81F40189C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6F8A5C-D045-40EF-BF02-B58D48023B36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="anscombe" sheetId="1" r:id="rId1"/>
+    <sheet name="a" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="7">
-  <si>
-    <t>category</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>y</t>
   </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -880,505 +865,349 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="M2">
         <v>10</v>
       </c>
-      <c r="C2">
-        <v>8.0399999999999991</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
+      <c r="N2">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>8</v>
       </c>
       <c r="B3">
+        <v>6.95</v>
+      </c>
+      <c r="M3">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>6.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="N3">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>13</v>
       </c>
       <c r="B4">
+        <v>7.58</v>
+      </c>
+      <c r="M4">
         <v>13</v>
       </c>
-      <c r="C4">
-        <v>7.58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="N4">
+        <v>12.74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>9</v>
       </c>
       <c r="B5">
+        <v>8.81</v>
+      </c>
+      <c r="M5">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>8.81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3</v>
+      <c r="N5">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>11</v>
       </c>
       <c r="B6">
+        <v>8.33</v>
+      </c>
+      <c r="M6">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>8.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>3</v>
+      <c r="N6">
+        <v>7.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>14</v>
       </c>
       <c r="B7">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="M7">
         <v>14</v>
       </c>
-      <c r="C7">
-        <v>9.9600000000000009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="N7">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
       </c>
       <c r="B8">
+        <v>7.24</v>
+      </c>
+      <c r="M8">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>7.24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="N8">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
       </c>
       <c r="B9">
+        <v>4.26</v>
+      </c>
+      <c r="M9">
         <v>4</v>
       </c>
-      <c r="C9">
-        <v>4.26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>3</v>
+      <c r="N9">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>12</v>
       </c>
       <c r="B10">
+        <v>10.84</v>
+      </c>
+      <c r="M10">
         <v>12</v>
       </c>
-      <c r="C10">
-        <v>10.84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>3</v>
+      <c r="N10">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
       </c>
       <c r="B11">
+        <v>4.82</v>
+      </c>
+      <c r="M11">
         <v>7</v>
       </c>
-      <c r="C11">
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>3</v>
+      <c r="N11">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5</v>
       </c>
       <c r="B12">
+        <v>5.68</v>
+      </c>
+      <c r="M12">
         <v>5</v>
       </c>
-      <c r="C12">
-        <v>5.68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="N12">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>9.14</v>
+      </c>
+      <c r="M20">
+        <v>8</v>
+      </c>
+      <c r="N20">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>8.14</v>
+      </c>
+      <c r="M21">
+        <v>8</v>
+      </c>
+      <c r="N21">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>8.74</v>
+      </c>
+      <c r="M22">
+        <v>8</v>
+      </c>
+      <c r="N22">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>8.77</v>
+      </c>
+      <c r="M23">
+        <v>8</v>
+      </c>
+      <c r="N23">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>9.26</v>
+      </c>
+      <c r="M24">
+        <v>8</v>
+      </c>
+      <c r="N24">
+        <v>8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>8.1</v>
+      </c>
+      <c r="M25">
+        <v>8</v>
+      </c>
+      <c r="N25">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>6.13</v>
+      </c>
+      <c r="M26">
+        <v>8</v>
+      </c>
+      <c r="N26">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>4</v>
       </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>9.14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
+      <c r="B27">
+        <v>3.1</v>
+      </c>
+      <c r="M27">
+        <v>19</v>
+      </c>
+      <c r="N27">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="M28">
         <v>8</v>
       </c>
-      <c r="C14">
-        <v>8.14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>8.74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>9</v>
-      </c>
-      <c r="C16">
-        <v>8.77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>9.26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>14</v>
-      </c>
-      <c r="C18">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>6.13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <v>9.1300000000000008</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22">
+      <c r="N28">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>7</v>
       </c>
-      <c r="C22">
+      <c r="B29">
         <v>7.26</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23">
+      <c r="M29">
+        <v>8</v>
+      </c>
+      <c r="N29">
+        <v>7.91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>5</v>
       </c>
-      <c r="C23">
+      <c r="B30">
         <v>4.74</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>7.46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25">
+      <c r="M30">
         <v>8</v>
       </c>
-      <c r="C25">
-        <v>6.77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <v>13</v>
-      </c>
-      <c r="C26">
-        <v>12.74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <v>9</v>
-      </c>
-      <c r="C27">
-        <v>7.11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28">
-        <v>11</v>
-      </c>
-      <c r="C28">
-        <v>7.81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29">
-        <v>14</v>
-      </c>
-      <c r="C29">
-        <v>8.84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <v>6</v>
-      </c>
-      <c r="C30">
-        <v>6.08</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>5.39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>12</v>
-      </c>
-      <c r="C32">
-        <v>8.15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33">
-        <v>7</v>
-      </c>
-      <c r="C33">
-        <v>6.42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>5.73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35">
-        <v>8</v>
-      </c>
-      <c r="C35">
-        <v>6.58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <v>8</v>
-      </c>
-      <c r="C36">
-        <v>5.76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37">
-        <v>8</v>
-      </c>
-      <c r="C37">
-        <v>7.71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38">
-        <v>8</v>
-      </c>
-      <c r="C38">
-        <v>8.84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39">
-        <v>8</v>
-      </c>
-      <c r="C39">
-        <v>8.4700000000000006</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40">
-        <v>8</v>
-      </c>
-      <c r="C40">
-        <v>7.04</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41">
-        <v>8</v>
-      </c>
-      <c r="C41">
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42">
-        <v>19</v>
-      </c>
-      <c r="C42">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43">
-        <v>8</v>
-      </c>
-      <c r="C43">
-        <v>5.56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44">
-        <v>8</v>
-      </c>
-      <c r="C44">
-        <v>7.91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45">
-        <v>8</v>
-      </c>
-      <c r="C45">
+      <c r="N30">
         <v>6.89</v>
       </c>
     </row>
